--- a/techniqo/data_new_ticker/VBL.xlsx
+++ b/techniqo/data_new_ticker/VBL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G955"/>
+  <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33811,6 +33811,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>743.1</v>
+      </c>
+      <c r="C956" t="n">
+        <v>751.75</v>
+      </c>
+      <c r="D956" t="n">
+        <v>728.55</v>
+      </c>
+      <c r="E956" t="n">
+        <v>735.55</v>
+      </c>
+      <c r="F956" t="n">
+        <v>129626</v>
+      </c>
+      <c r="G956" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>738.85</v>
+      </c>
+      <c r="C957" t="n">
+        <v>741.4</v>
+      </c>
+      <c r="D957" t="n">
+        <v>720</v>
+      </c>
+      <c r="E957" t="n">
+        <v>727.55</v>
+      </c>
+      <c r="F957" t="n">
+        <v>127338</v>
+      </c>
+      <c r="G957" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/VBL.xlsx
+++ b/techniqo/data_new_ticker/VBL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G957"/>
+  <dimension ref="A1:G959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33861,6 +33861,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>727</v>
+      </c>
+      <c r="C958" t="n">
+        <v>733.55</v>
+      </c>
+      <c r="D958" t="n">
+        <v>710.55</v>
+      </c>
+      <c r="E958" t="n">
+        <v>713.55</v>
+      </c>
+      <c r="F958" t="n">
+        <v>94552</v>
+      </c>
+      <c r="G958" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>716</v>
+      </c>
+      <c r="C959" t="n">
+        <v>721</v>
+      </c>
+      <c r="D959" t="n">
+        <v>690.2</v>
+      </c>
+      <c r="E959" t="n">
+        <v>705.25</v>
+      </c>
+      <c r="F959" t="n">
+        <v>174687</v>
+      </c>
+      <c r="G959" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
